--- a/paper/00_data/ITRP_dataset.xlsx
+++ b/paper/00_data/ITRP_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wanxiang Shen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704559CE-9EA9-4F8D-95B4-58CD8B840FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C64CEAD-4C3D-483D-807F-76FACCA36F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="37" r:id="rId1"/>
@@ -9346,7 +9346,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9777,7 +9777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42B96FA-2F58-4FC7-8A62-D3A7B4F67CA3}">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C72" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -23255,7 +23255,7 @@
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25671,7 +25671,7 @@
   <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34660,7 +34660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3E1BDA-97E0-42CB-ACA3-957AECCFC53D}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1:U1"/>
     </sheetView>
   </sheetViews>
@@ -40862,8 +40862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF37436-DE75-4785-83B3-22C6270E193B}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -40960,7 +40960,7 @@
         <v>1009</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E2" t="s">
         <v>416</v>
@@ -41021,8 +41021,8 @@
       <c r="C3" s="32" t="s">
         <v>1008</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>90</v>
+      <c r="D3" t="s">
+        <v>2880</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>416</v>
@@ -41090,7 +41090,7 @@
         <v>1008</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E4" t="s">
         <v>416</v>
@@ -41158,7 +41158,7 @@
         <v>1008</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E5" t="s">
         <v>416</v>
@@ -41226,7 +41226,7 @@
         <v>1009</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E6" t="s">
         <v>416</v>
@@ -41294,7 +41294,7 @@
         <v>1009</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E7" t="s">
         <v>416</v>
@@ -41362,7 +41362,7 @@
         <v>1008</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E8" t="s">
         <v>416</v>
@@ -41430,7 +41430,7 @@
         <v>1009</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E9" t="s">
         <v>416</v>
@@ -41498,7 +41498,7 @@
         <v>1009</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E10" t="s">
         <v>416</v>
@@ -41566,7 +41566,7 @@
         <v>1008</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E11" t="s">
         <v>416</v>
@@ -41634,7 +41634,7 @@
         <v>1008</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E12" t="s">
         <v>416</v>
@@ -41696,7 +41696,7 @@
         <v>1009</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E13" t="s">
         <v>416</v>
@@ -41764,7 +41764,7 @@
         <v>1009</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E14" t="s">
         <v>416</v>
@@ -41826,7 +41826,7 @@
         <v>1008</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E15" t="s">
         <v>416</v>
@@ -41894,7 +41894,7 @@
         <v>1008</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E16" t="s">
         <v>416</v>
@@ -41956,7 +41956,7 @@
         <v>1008</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E17" t="s">
         <v>416</v>
@@ -42024,7 +42024,7 @@
         <v>1008</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E18" t="s">
         <v>416</v>
@@ -42092,7 +42092,7 @@
         <v>1008</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E19" t="s">
         <v>416</v>
@@ -42160,7 +42160,7 @@
         <v>1008</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E20" t="s">
         <v>416</v>
@@ -42228,7 +42228,7 @@
         <v>1008</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E21" t="s">
         <v>416</v>
@@ -42296,7 +42296,7 @@
         <v>1008</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E22" t="s">
         <v>416</v>
@@ -42364,7 +42364,7 @@
         <v>1008</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E23" t="s">
         <v>416</v>
@@ -42432,7 +42432,7 @@
         <v>1009</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E24" t="s">
         <v>416</v>
@@ -42500,7 +42500,7 @@
         <v>1008</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E25" t="s">
         <v>416</v>
@@ -42568,7 +42568,7 @@
         <v>1008</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E26" t="s">
         <v>416</v>
@@ -42636,7 +42636,7 @@
         <v>1008</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E27" t="s">
         <v>416</v>
@@ -42704,7 +42704,7 @@
         <v>1008</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E28" t="s">
         <v>416</v>
@@ -42772,7 +42772,7 @@
         <v>1008</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E29" t="s">
         <v>416</v>
@@ -42840,7 +42840,7 @@
         <v>1008</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E30" t="s">
         <v>416</v>
@@ -42908,7 +42908,7 @@
         <v>1009</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E31" t="s">
         <v>416</v>
@@ -42976,7 +42976,7 @@
         <v>1009</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E32" t="s">
         <v>416</v>
@@ -43038,7 +43038,7 @@
         <v>1009</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E33" t="s">
         <v>416</v>
@@ -43106,7 +43106,7 @@
         <v>1009</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>2880</v>
       </c>
       <c r="E34" t="s">
         <v>416</v>
@@ -43168,7 +43168,7 @@
         <v>1008</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="E35" t="s">
         <v>416</v>
@@ -43236,7 +43236,7 @@
   <dimension ref="A1:AD299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -69982,7 +69982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64A0FEE-CAFC-48D3-A00F-F78E28CE0758}">
   <dimension ref="A1:AK90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
